--- a/db_files/entries_2021.xlsx
+++ b/db_files/entries_2021.xlsx
@@ -1183,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1199,7 +1199,7 @@
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,8 +1218,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1238,8 +1241,11 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1258,8 +1264,11 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1278,8 +1287,11 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1298,8 +1310,11 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1318,8 +1333,11 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1338,8 +1356,11 @@
       <c r="F7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1358,8 +1379,11 @@
       <c r="F8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1378,8 +1402,11 @@
       <c r="F9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1398,8 +1425,11 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1418,8 +1448,11 @@
       <c r="F11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1438,8 +1471,11 @@
       <c r="F12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1458,8 +1494,11 @@
       <c r="F13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1478,8 +1517,11 @@
       <c r="F14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1498,8 +1540,11 @@
       <c r="F15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1518,8 +1563,11 @@
       <c r="F16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1538,8 +1586,11 @@
       <c r="F17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1558,8 +1609,11 @@
       <c r="F18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1578,8 +1632,11 @@
       <c r="F19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1598,8 +1655,11 @@
       <c r="F20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="F21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1638,8 +1701,11 @@
       <c r="F22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1658,8 +1724,11 @@
       <c r="F23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1678,8 +1747,11 @@
       <c r="F24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1698,8 +1770,11 @@
       <c r="F25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1718,8 +1793,11 @@
       <c r="F26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1738,8 +1816,11 @@
       <c r="F27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1758,8 +1839,11 @@
       <c r="F28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1778,8 +1862,11 @@
       <c r="F29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1798,8 +1885,11 @@
       <c r="F30" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1818,8 +1908,11 @@
       <c r="F31" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1838,8 +1931,11 @@
       <c r="F32" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1858,8 +1954,11 @@
       <c r="F33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -1878,8 +1977,11 @@
       <c r="F34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -1898,8 +2000,11 @@
       <c r="F35" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -1918,8 +2023,11 @@
       <c r="F36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -1938,8 +2046,11 @@
       <c r="F37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -1958,8 +2069,11 @@
       <c r="F38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -1978,8 +2092,11 @@
       <c r="F39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -1998,8 +2115,11 @@
       <c r="F40" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -2018,8 +2138,11 @@
       <c r="F41" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -2038,8 +2161,11 @@
       <c r="F42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -2058,8 +2184,11 @@
       <c r="F43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2078,8 +2207,11 @@
       <c r="F44" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2098,8 +2230,11 @@
       <c r="F45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -2118,8 +2253,11 @@
       <c r="F46" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2138,8 +2276,11 @@
       <c r="F47" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2158,8 +2299,11 @@
       <c r="F48" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -2178,8 +2322,11 @@
       <c r="F49" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -2198,8 +2345,11 @@
       <c r="F50" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -2218,8 +2368,11 @@
       <c r="F51" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -2238,8 +2391,11 @@
       <c r="F52" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2258,8 +2414,11 @@
       <c r="F53" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2278,8 +2437,11 @@
       <c r="F54" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="F55" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -2318,8 +2483,11 @@
       <c r="F56" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -2338,8 +2506,11 @@
       <c r="F57" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -2358,8 +2529,11 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -2377,6 +2551,9 @@
       </c>
       <c r="F59" t="s">
         <v>50</v>
+      </c>
+      <c r="G59">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
